--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1119061.772001985</v>
+        <v>1116626.135078279</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673446</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>32.23168924578721</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>76.97130521239121</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -865,22 +865,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>57.66961651394309</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>120.4263234899699</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120.7740905403535</v>
+        <v>47.74395957035115</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>145.5614168363024</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>127.4503987265498</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>163.9628781690733</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>139.1204609057945</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>265.0446880840663</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323801</v>
+        <v>22.60777203238035</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114092</v>
+        <v>97.97552699114107</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>131.5479184428988</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035153</v>
+        <v>9.753166794035266</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034032</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146331</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>50.35754128961539</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>110.4672003733552</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754645</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352695</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.086211731108278</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>128.7104509524654</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.03063761899568</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>27.24739666248536</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.43694060668942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188281</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>13.7258286485367</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>74.41917683133089</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>75.55208621972827</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>143.7703193541473</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695561</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819363</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>50.06209150957653</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612733</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6.434538210426389</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060497</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>144.9604756260739</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>222.0602598600188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2038.144201386632</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1669.181684446221</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1310.91598583947</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>925.127733241226</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>514.1418284516185</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>99.06937829661496</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3137.566359992436</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2806.503472648865</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450754</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.697475415547</v>
+        <v>1076.656586475145</v>
       </c>
       <c r="W4" t="n">
-        <v>1615.697475415547</v>
+        <v>1076.656586475145</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>627.8744564335971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.376265094905</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4571,10 +4571,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2393.393660462199</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1498.746472494764</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1498.746472494764</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V7" t="n">
-        <v>1244.061984288877</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>1244.061984288877</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1016.07243339086</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.2798542473295</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>815.7608990065712</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1735.608663915319</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1446.191493878358</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1218.201942980341</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>997.4093638368109</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1921.858672753478</v>
+        <v>2332.418671408905</v>
       </c>
       <c r="C11" t="n">
-        <v>1552.896155813066</v>
+        <v>1963.456154468493</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.630457206315</v>
+        <v>1605.190455861743</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506931</v>
+        <v>1219.402203263498</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610854</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469196</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420332</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765428</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.226377687098</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856288</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882247</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234598</v>
+        <v>3925.553311234588</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455668</v>
+        <v>3826.588132455658</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971448</v>
+        <v>3693.711447159801</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604054</v>
+        <v>3440.220730792409</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260483</v>
+        <v>3109.157843448838</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990369</v>
+        <v>3109.157843448838</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729289</v>
+        <v>3109.157843448838</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753478</v>
+        <v>2719.018511473027</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550305</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469196</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792132</v>
+        <v>196.8120623792127</v>
       </c>
       <c r="K12" t="n">
-        <v>477.162132237651</v>
+        <v>477.16213223765</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649612</v>
+        <v>900.4499396649594</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908851</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259919</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2351.938665441777</v>
+        <v>2428.043574125664</v>
       </c>
       <c r="P12" t="n">
-        <v>2351.938665441777</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
-        <v>2542.849288629729</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2399.860956287583</v>
+        <v>392.8809112460594</v>
       </c>
       <c r="C13" t="n">
-        <v>2230.924773359676</v>
+        <v>392.8809112460594</v>
       </c>
       <c r="D13" t="n">
-        <v>2230.924773359676</v>
+        <v>392.8809112460594</v>
       </c>
       <c r="E13" t="n">
-        <v>2083.011679777283</v>
+        <v>392.8809112460594</v>
       </c>
       <c r="F13" t="n">
-        <v>2083.011679777283</v>
+        <v>245.9909637481491</v>
       </c>
       <c r="G13" t="n">
-        <v>2083.011679777283</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="H13" t="n">
-        <v>1938.776624282264</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="I13" t="n">
-        <v>1848.155333908183</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J13" t="n">
-        <v>1908.726101143531</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>2138.099315029262</v>
+        <v>368.4550473457701</v>
       </c>
       <c r="L13" t="n">
-        <v>2487.144492972384</v>
+        <v>717.5002252888913</v>
       </c>
       <c r="M13" t="n">
-        <v>2865.552816462714</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>3240.398052226486</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>3570.612002399342</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>3829.646400766014</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>3925.553311234598</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>3845.747006697767</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="S13" t="n">
-        <v>3845.747006697767</v>
+        <v>1968.108379906986</v>
       </c>
       <c r="T13" t="n">
-        <v>3624.932949247812</v>
+        <v>1747.294322457032</v>
       </c>
       <c r="U13" t="n">
-        <v>3335.842242688101</v>
+        <v>1458.203615897321</v>
       </c>
       <c r="V13" t="n">
-        <v>3081.157754482214</v>
+        <v>1203.519127691434</v>
       </c>
       <c r="W13" t="n">
-        <v>3030.29155115937</v>
+        <v>914.1019576544729</v>
       </c>
       <c r="X13" t="n">
-        <v>2802.302000261353</v>
+        <v>686.1124067564556</v>
       </c>
       <c r="Y13" t="n">
-        <v>2581.509421117823</v>
+        <v>574.5293760762992</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5288,10 +5288,10 @@
         <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.60923933393</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021279</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060304</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4986375524489</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>241.4986375524489</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>732.2309703962001</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1324.249324648328</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1324.249324648328</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.4656035413914</v>
+        <v>722.0485409200901</v>
       </c>
       <c r="C16" t="n">
-        <v>484.5294206134845</v>
+        <v>553.1123579921832</v>
       </c>
       <c r="D16" t="n">
-        <v>484.5294206134844</v>
+        <v>402.9957185798473</v>
       </c>
       <c r="E16" t="n">
-        <v>484.5294206134844</v>
+        <v>402.9957185798473</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608048</v>
@@ -5437,10 +5437,10 @@
         <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861978</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693318</v>
+        <v>819.1842911693319</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,7 +5449,7 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856732</v>
@@ -5461,10 +5461,10 @@
         <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U16" t="n">
         <v>1668.591243136707</v>
@@ -5473,13 +5473,13 @@
         <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1283.896198413179</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1055.906647515161</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.1140683716311</v>
+        <v>903.6970057503298</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>920.6398131926228</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>770.5231737802869</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>622.6100801978939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>475.7201326999837</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>308.5240334148634</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>166.8122022570617</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>2009.423761029277</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.7575184984</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.96493935487</v>
+        <v>1271.224460950769</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>583.3384263047947</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>435.4253327224017</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>288.5353852244913</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>121.3392859393712</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>121.3392859393712</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557276</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>411.963121559762</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859673</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511903</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232834</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232835</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.290194822295</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.605706616408</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.188536579447</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.19898568143</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.270770777031</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491241</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367884</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.2179484367884</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>337.3280009388781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>170.131901653758</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,19 +6622,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.76484885336</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511391</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648818</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750801</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072707</v>
+        <v>753.3092412490402</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434715</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155646</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133955</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310024</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015259</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876693</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>580.8993044876693</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>432.9862109052763</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>286.096263407366</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238954</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340304</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>889.3209912987564</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768873</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E40" t="n">
-        <v>414.4022433768873</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F40" t="n">
-        <v>267.5122958789772</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>100.3161965938571</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216013</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.868625753638</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257311</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.683526380545</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.608299724743</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.923811518856</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.506641481895</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.463817499104</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711972</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F46" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,49 +7807,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1820.203491470209</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1048.112282329344</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.112282329344</v>
+        <v>695.50206557031</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>116.8856819881955</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>70.2161709364791</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146344</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>236.1654570469756</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>108.1174529787396</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729271</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>144.334836291823</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>157.8125473841256</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.8013425629416</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>9.000252501566138</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>54.01843965608018</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.1477127454054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>72.11969353038604</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>211.9838267405005</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>211.7652975579133</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>64.74262662649562</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.845153664065094</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>115.4620467826923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.8807364711609</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>133.8601746357972</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>72.44497470121439</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>64.12421452922536</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878239.7642837333</v>
+        <v>878239.7642837326</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>955347.6109749328</v>
+        <v>955347.6109749326</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360038</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876637</v>
+        <v>423807.2415876634</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918676</v>
@@ -26329,13 +26329,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217539</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26347,10 +26347,10 @@
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185171</v>
+        <v>143114.1392185152</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051362</v>
+        <v>166521.3471051381</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557952</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.3285511537</v>
+        <v>37377.32855115316</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848853</v>
+        <v>43782.40655848917</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224857</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
         <v>12897.74318952439</v>
@@ -26436,22 +26436,22 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214723</v>
+        <v>86093.72216214705</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1056763.567535204</v>
       </c>
       <c r="C6" t="n">
-        <v>271981.1781923882</v>
+        <v>271981.178192388</v>
       </c>
       <c r="D6" t="n">
         <v>271981.1781923883</v>
       </c>
       <c r="E6" t="n">
-        <v>181701.6370174749</v>
+        <v>181491.6727736319</v>
       </c>
       <c r="F6" t="n">
-        <v>181887.061547288</v>
+        <v>181841.1565517204</v>
       </c>
       <c r="G6" t="n">
-        <v>338822.6646154366</v>
+        <v>338787.926690001</v>
       </c>
       <c r="H6" t="n">
-        <v>349989.9008510162</v>
+        <v>349955.1629255805</v>
       </c>
       <c r="I6" t="n">
-        <v>349989.900851016</v>
+        <v>349955.1629255805</v>
       </c>
       <c r="J6" t="n">
-        <v>132458.6984537388</v>
+        <v>132423.9605283031</v>
       </c>
       <c r="K6" t="n">
-        <v>349989.9008510162</v>
+        <v>349955.1629255805</v>
       </c>
       <c r="L6" t="n">
-        <v>349989.9008510162</v>
+        <v>349955.1629255805</v>
       </c>
       <c r="M6" t="n">
-        <v>312612.5722998624</v>
+        <v>312577.8343744273</v>
       </c>
       <c r="N6" t="n">
-        <v>306207.4942925276</v>
+        <v>306172.7563670911</v>
       </c>
       <c r="O6" t="n">
-        <v>346966.6028737911</v>
+        <v>346931.8649483557</v>
       </c>
       <c r="P6" t="n">
-        <v>349989.9008510159</v>
+        <v>349955.1629255805</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716385</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086495</v>
+        <v>981.3883278086471</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012587</v>
+        <v>122.3935669012571</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218283</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063566</v>
+        <v>149.9868724063545</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173566</v>
+        <v>178.7569625173589</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364234</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063566</v>
+        <v>149.9868724063545</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173563</v>
+        <v>178.7569625173589</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063566</v>
+        <v>149.9868724063545</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173566</v>
+        <v>178.7569625173589</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364234</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>262.3760751415332</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>174.0238667465107</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>194.4680268098849</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>105.2833318990672</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261.9597511231271</v>
+        <v>334.9898820931294</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>73.98753243986675</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>238.7992910724536</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>227.2326428941331</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>222.2750604869803</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>28.12636019283337</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-3.001096858460914e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>9.953637913895364e-13</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485653</v>
+        <v>4.873046301485647</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508996</v>
+        <v>49.90608543508989</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307183</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726061</v>
+        <v>619.8697634726053</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216978</v>
+        <v>769.0032542216968</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857432</v>
+        <v>855.6642913857421</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898395</v>
+        <v>869.5098341898383</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294414</v>
+        <v>821.0534800294404</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615143</v>
+        <v>700.7501494615134</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895591</v>
+        <v>526.2341787895584</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356984</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475346</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188522</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969425</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191524</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596485</v>
+        <v>89.76921320596473</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783043</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202557</v>
+        <v>421.0233277202552</v>
       </c>
       <c r="L12" t="n">
-        <v>566.117821625642</v>
+        <v>566.1178216256412</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845335</v>
+        <v>660.6327957845326</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147145</v>
+        <v>678.1177801147137</v>
       </c>
       <c r="O12" t="n">
-        <v>543.4716426079376</v>
+        <v>620.3452877431806</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>266.14218018962</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071848</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533298</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697591</v>
+        <v>48.42963285697584</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190412</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691797</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263712</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973097</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050062</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761898</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570618</v>
+        <v>98.28514988570605</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929615</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826912</v>
+        <v>9.339672552826899</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745723</v>
@@ -32087,19 +32087,19 @@
         <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>691.1369600774539</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862159</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>463.4318227833011</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>535.8585467435948</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>198.5607970756955</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>669.466988500007</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>349.7190218511039</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34469,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.547809004032</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276256</v>
+        <v>399.7799124276248</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584705</v>
+        <v>625.3180581584694</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932485</v>
+        <v>640.0967705932474</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077546</v>
+        <v>590.9552686077536</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062448</v>
+        <v>469.5171537062438</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151096</v>
+        <v>303.9284889151089</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156627</v>
+        <v>90.52095692156587</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116376</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458967</v>
+        <v>283.1818887458962</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457678</v>
+        <v>427.563441845767</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625153</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313812</v>
+        <v>546.7760680313804</v>
       </c>
       <c r="O12" t="n">
-        <v>400.8753981634931</v>
+        <v>477.7490432987362</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>132.1677727752898</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211633</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936581</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701852</v>
+        <v>61.1825931670183</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360915</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.570886811234</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882118</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765383</v>
+        <v>378.6315512765378</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190459</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410833</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998372</v>
+        <v>96.87566713998349</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053078</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946981</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>548.5407156330094</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970737</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>320.8355783388566</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>393.2623022991504</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125101</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>526.8707440555626</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>207.1227774066595</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>161.9999866016179</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
